--- a/components/download_templates/templates/Kayakalp_CH_DH_CHC_Excel_Import_Template.xlsx
+++ b/components/download_templates/templates/Kayakalp_CH_DH_CHC_Excel_Import_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp formats\Kayakalp formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C30040-7D52-40AF-9487-06BC5FDC5BC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A25C7A-C234-4F61-9E96-11F0E0F7C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8962612-1CB3-4189-B3EC-736619A48D1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8962612-1CB3-4189-B3EC-736619A48D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="CH DH CHC Quarterly Dataset" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4631,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB213EB5-9B3C-460D-94F1-741C123C3E90}">
   <dimension ref="A1:AZ425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E416" sqref="E416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4805,9 +4813,6 @@
         <v>0</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="AZ10" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:52" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
@@ -11359,8 +11364,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E9 E11:E15 E17:E21 E23:E27 E29:E33 E35:E39 E41:E45 E47:E51 E53:E57 E59:E63 E66:E70 E72:E76 E78:E82 E84:E88 E90:E94 E96:E100 E102:E106 E108:E112 E114:E118 E120:E124 E127:E131 E133:E137 E139:E143 E145:E149 E151:E155 E157:E161 E163:E167 E169:E173 E175:E179 E181:E185 E188:E192 E194:E198 E200:E204 E206:E210 E212:E216 E218:E222 E224:E228 E230:E234 E236:E240 E242:E246 E249:E253 E255:E259 E261:E265 E267:E271 E273:E277 E280:E284 E286:E290 E292:E296 E298:E302 E304:E308 E311:E315 E317:E321 E323:E327 E329:E333 E335:E339 E341:E345 E347:E351 E353:E357 E359:E363 E365:E369 E372:E381 E383:E392 E394:E403 E405:E414 E416:E425" xr:uid="{EBFB7FB8-CEAC-4B45-9400-AC51EA5A8C80}">
-      <formula1>$AZ$7:$AZ$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E9 E11:E15 E17:E21 E23:E27 E29:E33 E35:E39 E41:E45 E47:E51 E53:E57 E59:E63 E66:E70 E72:E76 E78:E82 E84:E88 E90:E94 E96:E100 E102:E106 E108:E112 E114:E118 E120:E124 E127:E131 E133:E137 E139:E143 E145:E149 E151:E155 E157:E161 E163:E167 E169:E173 E175:E179 E181:E185 E188:E192 E194:E198 E200:E204 E206:E210 E212:E216 E218:E222 E224:E228 E230:E234 E236:E240 E242:E246 E249:E253 E255:E259 E261:E265 E267:E271 E273:E277 E280:E284 E286:E290 E292:E296 E298:E302 E304:E308 E311:E315 E317:E321 E323:E327 E329:E333 E335:E339 E341:E345 E347:E351 E353:E357 E359:E363 E365:E369 E372:E381 E383:E392 E394:E403 E405:E414 E416:E425" xr:uid="{2B2CED72-3264-4FBA-9AF7-C40866451BC2}">
+      <formula1>$AZ$7:$AZ$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/components/download_templates/templates/Kayakalp_CH_DH_CHC_Excel_Import_Template.xlsx
+++ b/components/download_templates/templates/Kayakalp_CH_DH_CHC_Excel_Import_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A25C7A-C234-4F61-9E96-11F0E0F7C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B4D271-D935-4539-A180-F4D23C24746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8962612-1CB3-4189-B3EC-736619A48D1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1230">
   <si>
     <t>Ref. No.</t>
   </si>
@@ -4034,6 +4034,48 @@
   </si>
   <si>
     <t>Kayakalp CH DH CHC Quarterly Dataset</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Thematic Area</t>
+  </si>
+  <si>
+    <t>A.Hospital and Facility Upkeep</t>
+  </si>
+  <si>
+    <t>B.Sanitation &amp; Hygiene</t>
+  </si>
+  <si>
+    <t>C.Waste Management</t>
+  </si>
+  <si>
+    <t>D.Infection Control</t>
+  </si>
+  <si>
+    <t>E.Support Services</t>
+  </si>
+  <si>
+    <t>F.Hygiene Promotion</t>
+  </si>
+  <si>
+    <t>G.Beyond Hospital Boundary</t>
+  </si>
+  <si>
+    <t>E.Eco-friendly Facility</t>
+  </si>
+  <si>
+    <t>Score-card</t>
+  </si>
+  <si>
+    <t>Kayakalp Score Card</t>
+  </si>
+  <si>
+    <t>Eco-friendly Score Card</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -4237,7 +4279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4322,6 +4364,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4639,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB213EB5-9B3C-460D-94F1-741C123C3E90}">
   <dimension ref="A1:AZ425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E416" sqref="E416"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4651,6 +4706,16 @@
     <col min="4" max="4" width="58.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
@@ -4662,6 +4727,8 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -4679,8 +4746,20 @@
       <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4694,6 +4773,20 @@
       <c r="D3" s="11"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
+      <c r="G3" s="30" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H3" s="31">
+        <f>SUM(E4+E10+E16+E22+E28+E34+E40+E46+E52+E58)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J3" s="33">
+        <f>(H3+H4+H5+H6+H7+H8+H9+H10)/700</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -4709,6 +4802,20 @@
         <v>0</v>
       </c>
       <c r="F4" s="10"/>
+      <c r="G4" s="30" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H4" s="31">
+        <f>E65+E71+E77+E83+E89+E95+E101+E107+E113+E119</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J4" s="33">
+        <f>SUM(E371+E382+E393+E404+E415+E126+E132+E138+E144+E150+E156+E162+E168+E174+E180+E52)/210</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:52" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
@@ -4723,8 +4830,17 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
       <c r="F5" s="18"/>
+      <c r="G5" s="30" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H5" s="31">
+        <f>E126+E132+E138+E144+E150+E156+E162+E168+E174+E180</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:52" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -4739,8 +4855,17 @@
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
       <c r="F6" s="18"/>
+      <c r="G6" s="30" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H6" s="31">
+        <f>E187+E193+E199+E205+E211+E217+E223+E229+E235+E241</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:52" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
@@ -4755,8 +4880,17 @@
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
       <c r="F7" s="18"/>
+      <c r="G7" s="30" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H7" s="31">
+        <f>E248+E254+E260+E266+E272</f>
+        <v>0</v>
+      </c>
       <c r="AZ7" s="1">
         <v>0</v>
       </c>
@@ -4774,8 +4908,17 @@
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
       <c r="F8" s="18"/>
+      <c r="G8" s="30" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H8" s="31">
+        <f>E279+E285+E291+E297+E303</f>
+        <v>0</v>
+      </c>
       <c r="AZ8" s="1">
         <v>1</v>
       </c>
@@ -4793,8 +4936,17 @@
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
       <c r="F9" s="18"/>
+      <c r="G9" s="30" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H9" s="31">
+        <f>E310+E316+E322+E328+E334+E340+E346+E352+E358+E364</f>
+        <v>0</v>
+      </c>
       <c r="AZ9" s="1">
         <v>2</v>
       </c>
@@ -4813,6 +4965,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="10"/>
+      <c r="G10" s="30" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H10" s="31">
+        <f>E371+E382+E393+E404+E415</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:52" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
@@ -4827,7 +4986,9 @@
       <c r="D11" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:52" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4843,7 +5004,9 @@
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:52" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4859,7 +5022,9 @@
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:52" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4875,7 +5040,9 @@
       <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:52" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4891,7 +5058,9 @@
       <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4922,7 +5091,9 @@
       <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4938,7 +5109,9 @@
       <c r="D18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4954,7 +5127,9 @@
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4970,7 +5145,9 @@
       <c r="D20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4986,7 +5163,9 @@
       <c r="D21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5017,7 +5196,9 @@
       <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5033,7 +5214,9 @@
       <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5049,7 +5232,9 @@
       <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5065,7 +5250,9 @@
       <c r="D26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5081,7 +5268,9 @@
       <c r="D27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5112,7 +5301,9 @@
       <c r="D29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5128,7 +5319,9 @@
       <c r="D30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5144,7 +5337,9 @@
       <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5160,7 +5355,9 @@
       <c r="D32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5176,7 +5373,9 @@
       <c r="D33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5207,7 +5406,9 @@
       <c r="D35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5223,7 +5424,9 @@
       <c r="D36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5239,7 +5442,9 @@
       <c r="D37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5255,7 +5460,9 @@
       <c r="D38" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5271,7 +5478,9 @@
       <c r="D39" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5302,7 +5511,9 @@
       <c r="D41" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5318,7 +5529,9 @@
       <c r="D42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
       <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5334,7 +5547,9 @@
       <c r="D43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5350,7 +5565,9 @@
       <c r="D44" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5366,7 +5583,9 @@
       <c r="D45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
       <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5397,7 +5616,9 @@
       <c r="D47" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="18"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5413,7 +5634,9 @@
       <c r="D48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="18"/>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5429,7 +5652,9 @@
       <c r="D49" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="18">
+        <v>0</v>
+      </c>
       <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5445,7 +5670,9 @@
       <c r="D50" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
       <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5461,7 +5688,9 @@
       <c r="D51" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5492,7 +5721,9 @@
       <c r="D53" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="18">
+        <v>0</v>
+      </c>
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5508,7 +5739,9 @@
       <c r="D54" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="18">
+        <v>0</v>
+      </c>
       <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5524,7 +5757,9 @@
       <c r="D55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="18"/>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5540,7 +5775,9 @@
       <c r="D56" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="18">
+        <v>0</v>
+      </c>
       <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5554,7 +5791,9 @@
       <c r="D57" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="18"/>
+      <c r="E57" s="18">
+        <v>0</v>
+      </c>
       <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5585,7 +5824,9 @@
       <c r="D59" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="18"/>
+      <c r="E59" s="18">
+        <v>0</v>
+      </c>
       <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5601,7 +5842,9 @@
       <c r="D60" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E60" s="18"/>
+      <c r="E60" s="18">
+        <v>0</v>
+      </c>
       <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5617,7 +5860,9 @@
       <c r="D61" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="18"/>
+      <c r="E61" s="18">
+        <v>0</v>
+      </c>
       <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5633,7 +5878,9 @@
       <c r="D62" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="18"/>
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
       <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5649,7 +5896,9 @@
       <c r="D63" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="18"/>
+      <c r="E63" s="18">
+        <v>0</v>
+      </c>
       <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5692,7 +5941,9 @@
       <c r="D66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E66" s="18"/>
+      <c r="E66" s="18">
+        <v>0</v>
+      </c>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5708,7 +5959,9 @@
       <c r="D67" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="18"/>
+      <c r="E67" s="18">
+        <v>0</v>
+      </c>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5724,7 +5977,9 @@
       <c r="D68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="18"/>
+      <c r="E68" s="18">
+        <v>0</v>
+      </c>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5740,7 +5995,9 @@
       <c r="D69" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E69" s="18"/>
+      <c r="E69" s="18">
+        <v>0</v>
+      </c>
       <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5756,7 +6013,9 @@
       <c r="D70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E70" s="18"/>
+      <c r="E70" s="18">
+        <v>0</v>
+      </c>
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5787,7 +6046,9 @@
       <c r="D72" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E72" s="18"/>
+      <c r="E72" s="18">
+        <v>0</v>
+      </c>
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5803,7 +6064,9 @@
       <c r="D73" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E73" s="18"/>
+      <c r="E73" s="18">
+        <v>0</v>
+      </c>
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5819,7 +6082,9 @@
       <c r="D74" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E74" s="18"/>
+      <c r="E74" s="18">
+        <v>0</v>
+      </c>
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5835,7 +6100,9 @@
       <c r="D75" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E75" s="18"/>
+      <c r="E75" s="18">
+        <v>0</v>
+      </c>
       <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5851,7 +6118,9 @@
       <c r="D76" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E76" s="18"/>
+      <c r="E76" s="18">
+        <v>0</v>
+      </c>
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5882,7 +6151,9 @@
       <c r="D78" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E78" s="18"/>
+      <c r="E78" s="18">
+        <v>0</v>
+      </c>
       <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5898,7 +6169,9 @@
       <c r="D79" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E79" s="18"/>
+      <c r="E79" s="18">
+        <v>0</v>
+      </c>
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5914,7 +6187,9 @@
       <c r="D80" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E80" s="18"/>
+      <c r="E80" s="18">
+        <v>0</v>
+      </c>
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5930,7 +6205,9 @@
       <c r="D81" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E81" s="18"/>
+      <c r="E81" s="18">
+        <v>0</v>
+      </c>
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5946,7 +6223,9 @@
       <c r="D82" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E82" s="18"/>
+      <c r="E82" s="18">
+        <v>0</v>
+      </c>
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5977,7 +6256,9 @@
       <c r="D84" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E84" s="18"/>
+      <c r="E84" s="18">
+        <v>0</v>
+      </c>
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5993,7 +6274,9 @@
       <c r="D85" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="18"/>
+      <c r="E85" s="18">
+        <v>0</v>
+      </c>
       <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6009,7 +6292,9 @@
       <c r="D86" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E86" s="18"/>
+      <c r="E86" s="18">
+        <v>0</v>
+      </c>
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6025,7 +6310,9 @@
       <c r="D87" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="18"/>
+      <c r="E87" s="18">
+        <v>0</v>
+      </c>
       <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6041,7 +6328,9 @@
       <c r="D88" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="18"/>
+      <c r="E88" s="18">
+        <v>0</v>
+      </c>
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6072,7 +6361,9 @@
       <c r="D90" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="18"/>
+      <c r="E90" s="18">
+        <v>0</v>
+      </c>
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6088,7 +6379,9 @@
       <c r="D91" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E91" s="18"/>
+      <c r="E91" s="18">
+        <v>0</v>
+      </c>
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6104,7 +6397,9 @@
       <c r="D92" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E92" s="18"/>
+      <c r="E92" s="18">
+        <v>0</v>
+      </c>
       <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6120,7 +6415,9 @@
       <c r="D93" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E93" s="18"/>
+      <c r="E93" s="18">
+        <v>0</v>
+      </c>
       <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6136,7 +6433,9 @@
       <c r="D94" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E94" s="18"/>
+      <c r="E94" s="18">
+        <v>0</v>
+      </c>
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6167,7 +6466,9 @@
       <c r="D96" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E96" s="18"/>
+      <c r="E96" s="18">
+        <v>0</v>
+      </c>
       <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6183,7 +6484,9 @@
       <c r="D97" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E97" s="18"/>
+      <c r="E97" s="18">
+        <v>0</v>
+      </c>
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6199,7 +6502,9 @@
       <c r="D98" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E98" s="18"/>
+      <c r="E98" s="18">
+        <v>0</v>
+      </c>
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6215,7 +6520,9 @@
       <c r="D99" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E99" s="18"/>
+      <c r="E99" s="18">
+        <v>0</v>
+      </c>
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6231,7 +6538,9 @@
       <c r="D100" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E100" s="18"/>
+      <c r="E100" s="18">
+        <v>0</v>
+      </c>
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6262,7 +6571,9 @@
       <c r="D102" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" s="18">
+        <v>0</v>
+      </c>
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6278,7 +6589,9 @@
       <c r="D103" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E103" s="18"/>
+      <c r="E103" s="18">
+        <v>0</v>
+      </c>
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6294,7 +6607,9 @@
       <c r="D104" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E104" s="18"/>
+      <c r="E104" s="18">
+        <v>0</v>
+      </c>
       <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6310,7 +6625,9 @@
       <c r="D105" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E105" s="18"/>
+      <c r="E105" s="18">
+        <v>0</v>
+      </c>
       <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6326,7 +6643,9 @@
       <c r="D106" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E106" s="18"/>
+      <c r="E106" s="18">
+        <v>0</v>
+      </c>
       <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6357,7 +6676,9 @@
       <c r="D108" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E108" s="18"/>
+      <c r="E108" s="18">
+        <v>0</v>
+      </c>
       <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6373,7 +6694,9 @@
       <c r="D109" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E109" s="18"/>
+      <c r="E109" s="18">
+        <v>0</v>
+      </c>
       <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6389,7 +6712,9 @@
       <c r="D110" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E110" s="18"/>
+      <c r="E110" s="18">
+        <v>0</v>
+      </c>
       <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6405,7 +6730,9 @@
       <c r="D111" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E111" s="18"/>
+      <c r="E111" s="18">
+        <v>0</v>
+      </c>
       <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6421,7 +6748,9 @@
       <c r="D112" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E112" s="18"/>
+      <c r="E112" s="18">
+        <v>0</v>
+      </c>
       <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6453,7 +6782,9 @@
       <c r="D114" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E114" s="18"/>
+      <c r="E114" s="18">
+        <v>0</v>
+      </c>
       <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:7" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6469,7 +6800,9 @@
       <c r="D115" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E115" s="18"/>
+      <c r="E115" s="18">
+        <v>0</v>
+      </c>
       <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6485,7 +6818,9 @@
       <c r="D116" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E116" s="18"/>
+      <c r="E116" s="18">
+        <v>0</v>
+      </c>
       <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6501,7 +6836,9 @@
       <c r="D117" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E117" s="18"/>
+      <c r="E117" s="18">
+        <v>0</v>
+      </c>
       <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:7" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6517,7 +6854,9 @@
       <c r="D118" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E118" s="18"/>
+      <c r="E118" s="18">
+        <v>0</v>
+      </c>
       <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6548,7 +6887,9 @@
       <c r="D120" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E120" s="18"/>
+      <c r="E120" s="18">
+        <v>0</v>
+      </c>
       <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6564,7 +6905,9 @@
       <c r="D121" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E121" s="18"/>
+      <c r="E121" s="18">
+        <v>0</v>
+      </c>
       <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6580,7 +6923,9 @@
       <c r="D122" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E122" s="18"/>
+      <c r="E122" s="18">
+        <v>0</v>
+      </c>
       <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6596,7 +6941,9 @@
       <c r="D123" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E123" s="18"/>
+      <c r="E123" s="18">
+        <v>0</v>
+      </c>
       <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6612,7 +6959,9 @@
       <c r="D124" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E124" s="18"/>
+      <c r="E124" s="18">
+        <v>0</v>
+      </c>
       <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6655,7 +7004,9 @@
       <c r="D127" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E127" s="18"/>
+      <c r="E127" s="18">
+        <v>0</v>
+      </c>
       <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:7" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -6671,7 +7022,9 @@
       <c r="D128" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="E128" s="18"/>
+      <c r="E128" s="18">
+        <v>0</v>
+      </c>
       <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6687,7 +7040,9 @@
       <c r="D129" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E129" s="18"/>
+      <c r="E129" s="18">
+        <v>0</v>
+      </c>
       <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -6703,7 +7058,9 @@
       <c r="D130" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="E130" s="18"/>
+      <c r="E130" s="18">
+        <v>0</v>
+      </c>
       <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6719,7 +7076,9 @@
       <c r="D131" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E131" s="18"/>
+      <c r="E131" s="18">
+        <v>0</v>
+      </c>
       <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6750,7 +7109,9 @@
       <c r="D133" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E133" s="18"/>
+      <c r="E133" s="18">
+        <v>0</v>
+      </c>
       <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6766,7 +7127,9 @@
       <c r="D134" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E134" s="18"/>
+      <c r="E134" s="18">
+        <v>0</v>
+      </c>
       <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6782,7 +7145,9 @@
       <c r="D135" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E135" s="18"/>
+      <c r="E135" s="18">
+        <v>0</v>
+      </c>
       <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6798,7 +7163,9 @@
       <c r="D136" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E136" s="18"/>
+      <c r="E136" s="18">
+        <v>0</v>
+      </c>
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6814,7 +7181,9 @@
       <c r="D137" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E137" s="18"/>
+      <c r="E137" s="18">
+        <v>0</v>
+      </c>
       <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6845,7 +7214,9 @@
       <c r="D139" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E139" s="18"/>
+      <c r="E139" s="18">
+        <v>0</v>
+      </c>
       <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6861,7 +7232,9 @@
       <c r="D140" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E140" s="18"/>
+      <c r="E140" s="18">
+        <v>0</v>
+      </c>
       <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6877,7 +7250,9 @@
       <c r="D141" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E141" s="18"/>
+      <c r="E141" s="18">
+        <v>0</v>
+      </c>
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6893,7 +7268,9 @@
       <c r="D142" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E142" s="18"/>
+      <c r="E142" s="18">
+        <v>0</v>
+      </c>
       <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6909,7 +7286,9 @@
       <c r="D143" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E143" s="18"/>
+      <c r="E143" s="18">
+        <v>0</v>
+      </c>
       <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6940,7 +7319,9 @@
       <c r="D145" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E145" s="18"/>
+      <c r="E145" s="18">
+        <v>0</v>
+      </c>
       <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6956,7 +7337,9 @@
       <c r="D146" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E146" s="18"/>
+      <c r="E146" s="18">
+        <v>0</v>
+      </c>
       <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6972,7 +7355,9 @@
       <c r="D147" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E147" s="18"/>
+      <c r="E147" s="18">
+        <v>0</v>
+      </c>
       <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6988,7 +7373,9 @@
       <c r="D148" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="E148" s="18"/>
+      <c r="E148" s="18">
+        <v>0</v>
+      </c>
       <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7004,7 +7391,9 @@
       <c r="D149" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E149" s="18"/>
+      <c r="E149" s="18">
+        <v>0</v>
+      </c>
       <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7035,7 +7424,9 @@
       <c r="D151" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E151" s="18"/>
+      <c r="E151" s="18">
+        <v>0</v>
+      </c>
       <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -7051,7 +7442,9 @@
       <c r="D152" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="E152" s="18"/>
+      <c r="E152" s="18">
+        <v>0</v>
+      </c>
       <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -7067,7 +7460,9 @@
       <c r="D153" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="E153" s="18"/>
+      <c r="E153" s="18">
+        <v>0</v>
+      </c>
       <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7083,7 +7478,9 @@
       <c r="D154" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E154" s="18"/>
+      <c r="E154" s="18">
+        <v>0</v>
+      </c>
       <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7099,7 +7496,9 @@
       <c r="D155" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="E155" s="18"/>
+      <c r="E155" s="18">
+        <v>0</v>
+      </c>
       <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7130,7 +7529,9 @@
       <c r="D157" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="E157" s="18"/>
+      <c r="E157" s="18">
+        <v>0</v>
+      </c>
       <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7146,7 +7547,9 @@
       <c r="D158" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="E158" s="18"/>
+      <c r="E158" s="18">
+        <v>0</v>
+      </c>
       <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7162,7 +7565,9 @@
       <c r="D159" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E159" s="18"/>
+      <c r="E159" s="18">
+        <v>0</v>
+      </c>
       <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7178,7 +7583,9 @@
       <c r="D160" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="E160" s="18"/>
+      <c r="E160" s="18">
+        <v>0</v>
+      </c>
       <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7194,7 +7601,9 @@
       <c r="D161" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="E161" s="18"/>
+      <c r="E161" s="18">
+        <v>0</v>
+      </c>
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7225,7 +7634,9 @@
       <c r="D163" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="E163" s="18"/>
+      <c r="E163" s="18">
+        <v>0</v>
+      </c>
       <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7241,7 +7652,9 @@
       <c r="D164" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E164" s="18"/>
+      <c r="E164" s="18">
+        <v>0</v>
+      </c>
       <c r="F164" s="18"/>
     </row>
     <row r="165" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7257,7 +7670,9 @@
       <c r="D165" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E165" s="18"/>
+      <c r="E165" s="18">
+        <v>0</v>
+      </c>
       <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7273,7 +7688,9 @@
       <c r="D166" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="E166" s="18"/>
+      <c r="E166" s="18">
+        <v>0</v>
+      </c>
       <c r="F166" s="18"/>
     </row>
     <row r="167" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7289,7 +7706,9 @@
       <c r="D167" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E167" s="18"/>
+      <c r="E167" s="18">
+        <v>0</v>
+      </c>
       <c r="F167" s="18"/>
     </row>
     <row r="168" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7320,7 +7739,9 @@
       <c r="D169" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="E169" s="18"/>
+      <c r="E169" s="18">
+        <v>0</v>
+      </c>
       <c r="F169" s="18"/>
     </row>
     <row r="170" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7336,7 +7757,9 @@
       <c r="D170" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E170" s="18"/>
+      <c r="E170" s="18">
+        <v>0</v>
+      </c>
       <c r="F170" s="18"/>
     </row>
     <row r="171" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7352,7 +7775,9 @@
       <c r="D171" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="E171" s="18"/>
+      <c r="E171" s="18">
+        <v>0</v>
+      </c>
       <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7368,7 +7793,9 @@
       <c r="D172" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E172" s="18"/>
+      <c r="E172" s="18">
+        <v>0</v>
+      </c>
       <c r="F172" s="18"/>
     </row>
     <row r="173" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7384,7 +7811,9 @@
       <c r="D173" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E173" s="18"/>
+      <c r="E173" s="18">
+        <v>0</v>
+      </c>
       <c r="F173" s="18"/>
     </row>
     <row r="174" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7415,7 +7844,9 @@
       <c r="D175" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="E175" s="18"/>
+      <c r="E175" s="18">
+        <v>0</v>
+      </c>
       <c r="F175" s="18"/>
     </row>
     <row r="176" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7431,7 +7862,9 @@
       <c r="D176" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="E176" s="18"/>
+      <c r="E176" s="18">
+        <v>0</v>
+      </c>
       <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7447,7 +7880,9 @@
       <c r="D177" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="E177" s="18"/>
+      <c r="E177" s="18">
+        <v>0</v>
+      </c>
       <c r="F177" s="18"/>
     </row>
     <row r="178" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7463,7 +7898,9 @@
       <c r="D178" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E178" s="18"/>
+      <c r="E178" s="18">
+        <v>0</v>
+      </c>
       <c r="F178" s="18"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7479,7 +7916,9 @@
       <c r="D179" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="E179" s="18"/>
+      <c r="E179" s="18">
+        <v>0</v>
+      </c>
       <c r="F179" s="18"/>
     </row>
     <row r="180" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7510,7 +7949,9 @@
       <c r="D181" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="E181" s="18"/>
+      <c r="E181" s="18">
+        <v>0</v>
+      </c>
       <c r="F181" s="18"/>
     </row>
     <row r="182" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7526,7 +7967,9 @@
       <c r="D182" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E182" s="18"/>
+      <c r="E182" s="18">
+        <v>0</v>
+      </c>
       <c r="F182" s="18"/>
     </row>
     <row r="183" spans="1:6" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7542,7 +7985,9 @@
       <c r="D183" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="E183" s="18"/>
+      <c r="E183" s="18">
+        <v>0</v>
+      </c>
       <c r="F183" s="18"/>
     </row>
     <row r="184" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7558,7 +8003,9 @@
       <c r="D184" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E184" s="18"/>
+      <c r="E184" s="18">
+        <v>0</v>
+      </c>
       <c r="F184" s="18"/>
     </row>
     <row r="185" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -7574,7 +8021,9 @@
       <c r="D185" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E185" s="18"/>
+      <c r="E185" s="18">
+        <v>0</v>
+      </c>
       <c r="F185" s="18"/>
     </row>
     <row r="186" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7617,7 +8066,9 @@
       <c r="D188" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="E188" s="18"/>
+      <c r="E188" s="18">
+        <v>0</v>
+      </c>
       <c r="F188" s="18"/>
     </row>
     <row r="189" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7633,7 +8084,9 @@
       <c r="D189" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="E189" s="18"/>
+      <c r="E189" s="18">
+        <v>0</v>
+      </c>
       <c r="F189" s="18"/>
     </row>
     <row r="190" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7649,7 +8102,9 @@
       <c r="D190" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="E190" s="18"/>
+      <c r="E190" s="18">
+        <v>0</v>
+      </c>
       <c r="F190" s="18"/>
     </row>
     <row r="191" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7665,7 +8120,9 @@
       <c r="D191" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="E191" s="18"/>
+      <c r="E191" s="18">
+        <v>0</v>
+      </c>
       <c r="F191" s="18"/>
     </row>
     <row r="192" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7681,7 +8138,9 @@
       <c r="D192" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="E192" s="18"/>
+      <c r="E192" s="18">
+        <v>0</v>
+      </c>
       <c r="F192" s="18"/>
     </row>
     <row r="193" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7712,7 +8171,9 @@
       <c r="D194" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="E194" s="18"/>
+      <c r="E194" s="18">
+        <v>0</v>
+      </c>
       <c r="F194" s="18"/>
     </row>
     <row r="195" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7728,7 +8189,9 @@
       <c r="D195" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="E195" s="18"/>
+      <c r="E195" s="18">
+        <v>0</v>
+      </c>
       <c r="F195" s="18"/>
     </row>
     <row r="196" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7744,7 +8207,9 @@
       <c r="D196" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E196" s="18"/>
+      <c r="E196" s="18">
+        <v>0</v>
+      </c>
       <c r="F196" s="18"/>
     </row>
     <row r="197" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7760,7 +8225,9 @@
       <c r="D197" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="E197" s="18"/>
+      <c r="E197" s="18">
+        <v>0</v>
+      </c>
       <c r="F197" s="18"/>
     </row>
     <row r="198" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7776,7 +8243,9 @@
       <c r="D198" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E198" s="18"/>
+      <c r="E198" s="18">
+        <v>0</v>
+      </c>
       <c r="F198" s="18"/>
     </row>
     <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7807,7 +8276,9 @@
       <c r="D200" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="E200" s="18"/>
+      <c r="E200" s="18">
+        <v>0</v>
+      </c>
       <c r="F200" s="18"/>
     </row>
     <row r="201" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7823,7 +8294,9 @@
       <c r="D201" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="E201" s="18"/>
+      <c r="E201" s="18">
+        <v>0</v>
+      </c>
       <c r="F201" s="18"/>
     </row>
     <row r="202" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7839,7 +8312,9 @@
       <c r="D202" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="E202" s="18"/>
+      <c r="E202" s="18">
+        <v>0</v>
+      </c>
       <c r="F202" s="18"/>
     </row>
     <row r="203" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7855,7 +8330,9 @@
       <c r="D203" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="E203" s="18"/>
+      <c r="E203" s="18">
+        <v>0</v>
+      </c>
       <c r="F203" s="18"/>
     </row>
     <row r="204" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7871,7 +8348,9 @@
       <c r="D204" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="E204" s="18"/>
+      <c r="E204" s="18">
+        <v>0</v>
+      </c>
       <c r="F204" s="18"/>
     </row>
     <row r="205" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7902,7 +8381,9 @@
       <c r="D206" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="E206" s="18"/>
+      <c r="E206" s="18">
+        <v>0</v>
+      </c>
       <c r="F206" s="18"/>
     </row>
     <row r="207" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7918,7 +8399,9 @@
       <c r="D207" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E207" s="18"/>
+      <c r="E207" s="18">
+        <v>0</v>
+      </c>
       <c r="F207" s="18"/>
     </row>
     <row r="208" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7934,7 +8417,9 @@
       <c r="D208" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="E208" s="18"/>
+      <c r="E208" s="18">
+        <v>0</v>
+      </c>
       <c r="F208" s="18"/>
     </row>
     <row r="209" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7950,7 +8435,9 @@
       <c r="D209" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="E209" s="18"/>
+      <c r="E209" s="18">
+        <v>0</v>
+      </c>
       <c r="F209" s="18"/>
     </row>
     <row r="210" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7966,7 +8453,9 @@
       <c r="D210" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="E210" s="18"/>
+      <c r="E210" s="18">
+        <v>0</v>
+      </c>
       <c r="F210" s="18"/>
     </row>
     <row r="211" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7997,7 +8486,9 @@
       <c r="D212" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="E212" s="18"/>
+      <c r="E212" s="18">
+        <v>0</v>
+      </c>
       <c r="F212" s="18"/>
     </row>
     <row r="213" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8013,7 +8504,9 @@
       <c r="D213" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E213" s="18"/>
+      <c r="E213" s="18">
+        <v>0</v>
+      </c>
       <c r="F213" s="18"/>
     </row>
     <row r="214" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8029,7 +8522,9 @@
       <c r="D214" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="E214" s="18"/>
+      <c r="E214" s="18">
+        <v>0</v>
+      </c>
       <c r="F214" s="18"/>
     </row>
     <row r="215" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8045,7 +8540,9 @@
       <c r="D215" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="E215" s="18"/>
+      <c r="E215" s="18">
+        <v>0</v>
+      </c>
       <c r="F215" s="18"/>
     </row>
     <row r="216" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8061,7 +8558,9 @@
       <c r="D216" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="E216" s="18"/>
+      <c r="E216" s="18">
+        <v>0</v>
+      </c>
       <c r="F216" s="18"/>
     </row>
     <row r="217" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8092,7 +8591,9 @@
       <c r="D218" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="E218" s="18"/>
+      <c r="E218" s="18">
+        <v>0</v>
+      </c>
       <c r="F218" s="18"/>
     </row>
     <row r="219" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8108,7 +8609,9 @@
       <c r="D219" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E219" s="18"/>
+      <c r="E219" s="18">
+        <v>0</v>
+      </c>
       <c r="F219" s="18"/>
     </row>
     <row r="220" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8124,7 +8627,9 @@
       <c r="D220" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="E220" s="18"/>
+      <c r="E220" s="18">
+        <v>0</v>
+      </c>
       <c r="F220" s="18"/>
     </row>
     <row r="221" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8140,7 +8645,9 @@
       <c r="D221" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E221" s="18"/>
+      <c r="E221" s="18">
+        <v>0</v>
+      </c>
       <c r="F221" s="18"/>
     </row>
     <row r="222" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8156,7 +8663,9 @@
       <c r="D222" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="E222" s="18"/>
+      <c r="E222" s="18">
+        <v>0</v>
+      </c>
       <c r="F222" s="18"/>
     </row>
     <row r="223" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8187,7 +8696,9 @@
       <c r="D224" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="E224" s="18"/>
+      <c r="E224" s="18">
+        <v>0</v>
+      </c>
       <c r="F224" s="18"/>
     </row>
     <row r="225" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8203,7 +8714,9 @@
       <c r="D225" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="E225" s="18"/>
+      <c r="E225" s="18">
+        <v>0</v>
+      </c>
       <c r="F225" s="18"/>
     </row>
     <row r="226" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8219,7 +8732,9 @@
       <c r="D226" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="E226" s="18"/>
+      <c r="E226" s="18">
+        <v>0</v>
+      </c>
       <c r="F226" s="18"/>
     </row>
     <row r="227" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8235,7 +8750,9 @@
       <c r="D227" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E227" s="18"/>
+      <c r="E227" s="18">
+        <v>0</v>
+      </c>
       <c r="F227" s="18"/>
     </row>
     <row r="228" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8251,7 +8768,9 @@
       <c r="D228" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="E228" s="18"/>
+      <c r="E228" s="18">
+        <v>0</v>
+      </c>
       <c r="F228" s="18"/>
     </row>
     <row r="229" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8282,7 +8801,9 @@
       <c r="D230" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E230" s="18"/>
+      <c r="E230" s="18">
+        <v>0</v>
+      </c>
       <c r="F230" s="18"/>
     </row>
     <row r="231" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8298,7 +8819,9 @@
       <c r="D231" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="E231" s="18"/>
+      <c r="E231" s="18">
+        <v>0</v>
+      </c>
       <c r="F231" s="18"/>
     </row>
     <row r="232" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8314,7 +8837,9 @@
       <c r="D232" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="E232" s="18"/>
+      <c r="E232" s="18">
+        <v>0</v>
+      </c>
       <c r="F232" s="18"/>
     </row>
     <row r="233" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8330,7 +8855,9 @@
       <c r="D233" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="E233" s="18"/>
+      <c r="E233" s="18">
+        <v>0</v>
+      </c>
       <c r="F233" s="18"/>
     </row>
     <row r="234" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8346,7 +8873,9 @@
       <c r="D234" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="E234" s="18"/>
+      <c r="E234" s="18">
+        <v>0</v>
+      </c>
       <c r="F234" s="18"/>
     </row>
     <row r="235" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8377,7 +8906,9 @@
       <c r="D236" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="E236" s="18"/>
+      <c r="E236" s="18">
+        <v>0</v>
+      </c>
       <c r="F236" s="18"/>
     </row>
     <row r="237" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8393,7 +8924,9 @@
       <c r="D237" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="E237" s="18"/>
+      <c r="E237" s="18">
+        <v>0</v>
+      </c>
       <c r="F237" s="18"/>
     </row>
     <row r="238" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8409,7 +8942,9 @@
       <c r="D238" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="E238" s="18"/>
+      <c r="E238" s="18">
+        <v>0</v>
+      </c>
       <c r="F238" s="18"/>
     </row>
     <row r="239" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8425,7 +8960,9 @@
       <c r="D239" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="E239" s="18"/>
+      <c r="E239" s="18">
+        <v>0</v>
+      </c>
       <c r="F239" s="18"/>
     </row>
     <row r="240" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8441,7 +8978,9 @@
       <c r="D240" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="E240" s="18"/>
+      <c r="E240" s="18">
+        <v>0</v>
+      </c>
       <c r="F240" s="18"/>
     </row>
     <row r="241" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8472,7 +9011,9 @@
       <c r="D242" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="E242" s="18"/>
+      <c r="E242" s="18">
+        <v>0</v>
+      </c>
       <c r="F242" s="18"/>
     </row>
     <row r="243" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8488,7 +9029,9 @@
       <c r="D243" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E243" s="18"/>
+      <c r="E243" s="18">
+        <v>0</v>
+      </c>
       <c r="F243" s="18"/>
     </row>
     <row r="244" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8504,7 +9047,9 @@
       <c r="D244" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="E244" s="18"/>
+      <c r="E244" s="18">
+        <v>0</v>
+      </c>
       <c r="F244" s="18"/>
     </row>
     <row r="245" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8520,7 +9065,9 @@
       <c r="D245" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="E245" s="18"/>
+      <c r="E245" s="18">
+        <v>0</v>
+      </c>
       <c r="F245" s="18"/>
     </row>
     <row r="246" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8536,7 +9083,9 @@
       <c r="D246" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="E246" s="18"/>
+      <c r="E246" s="18">
+        <v>0</v>
+      </c>
       <c r="F246" s="18"/>
     </row>
     <row r="247" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8579,7 +9128,9 @@
       <c r="D249" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="E249" s="18"/>
+      <c r="E249" s="18">
+        <v>0</v>
+      </c>
       <c r="F249" s="18"/>
     </row>
     <row r="250" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8595,7 +9146,9 @@
       <c r="D250" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="E250" s="18"/>
+      <c r="E250" s="18">
+        <v>0</v>
+      </c>
       <c r="F250" s="18"/>
     </row>
     <row r="251" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8611,7 +9164,9 @@
       <c r="D251" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="E251" s="18"/>
+      <c r="E251" s="18">
+        <v>0</v>
+      </c>
       <c r="F251" s="18"/>
     </row>
     <row r="252" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8627,7 +9182,9 @@
       <c r="D252" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="E252" s="18"/>
+      <c r="E252" s="18">
+        <v>0</v>
+      </c>
       <c r="F252" s="18"/>
     </row>
     <row r="253" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8643,7 +9200,9 @@
       <c r="D253" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="E253" s="18"/>
+      <c r="E253" s="18">
+        <v>0</v>
+      </c>
       <c r="F253" s="18"/>
     </row>
     <row r="254" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8674,7 +9233,9 @@
       <c r="D255" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="E255" s="18"/>
+      <c r="E255" s="18">
+        <v>0</v>
+      </c>
       <c r="F255" s="18"/>
     </row>
     <row r="256" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8690,7 +9251,9 @@
       <c r="D256" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="E256" s="18"/>
+      <c r="E256" s="18">
+        <v>0</v>
+      </c>
       <c r="F256" s="18"/>
     </row>
     <row r="257" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8706,7 +9269,9 @@
       <c r="D257" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E257" s="18"/>
+      <c r="E257" s="18">
+        <v>0</v>
+      </c>
       <c r="F257" s="18"/>
     </row>
     <row r="258" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8722,7 +9287,9 @@
       <c r="D258" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="E258" s="18"/>
+      <c r="E258" s="18">
+        <v>0</v>
+      </c>
       <c r="F258" s="18"/>
     </row>
     <row r="259" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8738,7 +9305,9 @@
       <c r="D259" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E259" s="18"/>
+      <c r="E259" s="18">
+        <v>0</v>
+      </c>
       <c r="F259" s="18"/>
     </row>
     <row r="260" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8769,7 +9338,9 @@
       <c r="D261" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E261" s="18"/>
+      <c r="E261" s="18">
+        <v>0</v>
+      </c>
       <c r="F261" s="18"/>
     </row>
     <row r="262" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8785,7 +9356,9 @@
       <c r="D262" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="E262" s="18"/>
+      <c r="E262" s="18">
+        <v>0</v>
+      </c>
       <c r="F262" s="18"/>
     </row>
     <row r="263" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8801,7 +9374,9 @@
       <c r="D263" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="E263" s="18"/>
+      <c r="E263" s="18">
+        <v>0</v>
+      </c>
       <c r="F263" s="18"/>
     </row>
     <row r="264" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8817,7 +9392,9 @@
       <c r="D264" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="E264" s="18"/>
+      <c r="E264" s="18">
+        <v>0</v>
+      </c>
       <c r="F264" s="18"/>
     </row>
     <row r="265" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8833,7 +9410,9 @@
       <c r="D265" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E265" s="18"/>
+      <c r="E265" s="18">
+        <v>0</v>
+      </c>
       <c r="F265" s="18"/>
     </row>
     <row r="266" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8864,7 +9443,9 @@
       <c r="D267" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E267" s="18"/>
+      <c r="E267" s="18">
+        <v>0</v>
+      </c>
       <c r="F267" s="18"/>
     </row>
     <row r="268" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8880,7 +9461,9 @@
       <c r="D268" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="E268" s="18"/>
+      <c r="E268" s="18">
+        <v>0</v>
+      </c>
       <c r="F268" s="18"/>
     </row>
     <row r="269" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8896,7 +9479,9 @@
       <c r="D269" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E269" s="18"/>
+      <c r="E269" s="18">
+        <v>0</v>
+      </c>
       <c r="F269" s="18"/>
     </row>
     <row r="270" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8912,7 +9497,9 @@
       <c r="D270" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="E270" s="18"/>
+      <c r="E270" s="18">
+        <v>0</v>
+      </c>
       <c r="F270" s="18"/>
     </row>
     <row r="271" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8928,7 +9515,9 @@
       <c r="D271" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="E271" s="18"/>
+      <c r="E271" s="18">
+        <v>0</v>
+      </c>
       <c r="F271" s="18"/>
     </row>
     <row r="272" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8959,7 +9548,9 @@
       <c r="D273" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="E273" s="18"/>
+      <c r="E273" s="18">
+        <v>0</v>
+      </c>
       <c r="F273" s="18"/>
     </row>
     <row r="274" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8975,7 +9566,9 @@
       <c r="D274" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="E274" s="18"/>
+      <c r="E274" s="18">
+        <v>0</v>
+      </c>
       <c r="F274" s="18"/>
     </row>
     <row r="275" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8991,7 +9584,9 @@
       <c r="D275" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="E275" s="18"/>
+      <c r="E275" s="18">
+        <v>0</v>
+      </c>
       <c r="F275" s="18"/>
     </row>
     <row r="276" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9007,7 +9602,9 @@
       <c r="D276" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E276" s="18"/>
+      <c r="E276" s="18">
+        <v>0</v>
+      </c>
       <c r="F276" s="18"/>
     </row>
     <row r="277" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9023,7 +9620,9 @@
       <c r="D277" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="E277" s="18"/>
+      <c r="E277" s="18">
+        <v>0</v>
+      </c>
       <c r="F277" s="18"/>
     </row>
     <row r="278" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9066,7 +9665,9 @@
       <c r="D280" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="E280" s="18"/>
+      <c r="E280" s="18">
+        <v>0</v>
+      </c>
       <c r="F280" s="18"/>
     </row>
     <row r="281" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9082,7 +9683,9 @@
       <c r="D281" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="E281" s="18"/>
+      <c r="E281" s="18">
+        <v>0</v>
+      </c>
       <c r="F281" s="18"/>
     </row>
     <row r="282" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9098,7 +9701,9 @@
       <c r="D282" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="E282" s="18"/>
+      <c r="E282" s="18">
+        <v>0</v>
+      </c>
       <c r="F282" s="18"/>
     </row>
     <row r="283" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9114,7 +9719,9 @@
       <c r="D283" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E283" s="18"/>
+      <c r="E283" s="18">
+        <v>0</v>
+      </c>
       <c r="F283" s="18"/>
     </row>
     <row r="284" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9130,7 +9737,9 @@
       <c r="D284" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E284" s="18"/>
+      <c r="E284" s="18">
+        <v>0</v>
+      </c>
       <c r="F284" s="18"/>
     </row>
     <row r="285" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9161,7 +9770,9 @@
       <c r="D286" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E286" s="18"/>
+      <c r="E286" s="18">
+        <v>0</v>
+      </c>
       <c r="F286" s="18"/>
     </row>
     <row r="287" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9177,7 +9788,9 @@
       <c r="D287" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E287" s="18"/>
+      <c r="E287" s="18">
+        <v>0</v>
+      </c>
       <c r="F287" s="18"/>
     </row>
     <row r="288" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9193,7 +9806,9 @@
       <c r="D288" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E288" s="18"/>
+      <c r="E288" s="18">
+        <v>0</v>
+      </c>
       <c r="F288" s="18"/>
     </row>
     <row r="289" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9209,7 +9824,9 @@
       <c r="D289" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E289" s="18"/>
+      <c r="E289" s="18">
+        <v>0</v>
+      </c>
       <c r="F289" s="18"/>
     </row>
     <row r="290" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9225,7 +9842,9 @@
       <c r="D290" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="E290" s="18"/>
+      <c r="E290" s="18">
+        <v>0</v>
+      </c>
       <c r="F290" s="18"/>
     </row>
     <row r="291" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9256,7 +9875,9 @@
       <c r="D292" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="E292" s="18"/>
+      <c r="E292" s="18">
+        <v>0</v>
+      </c>
       <c r="F292" s="18"/>
     </row>
     <row r="293" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9272,7 +9893,9 @@
       <c r="D293" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="E293" s="18"/>
+      <c r="E293" s="18">
+        <v>0</v>
+      </c>
       <c r="F293" s="18"/>
     </row>
     <row r="294" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -9288,7 +9911,9 @@
       <c r="D294" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="E294" s="18"/>
+      <c r="E294" s="18">
+        <v>0</v>
+      </c>
       <c r="F294" s="18"/>
     </row>
     <row r="295" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9304,7 +9929,9 @@
       <c r="D295" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="E295" s="18"/>
+      <c r="E295" s="18">
+        <v>0</v>
+      </c>
       <c r="F295" s="18"/>
     </row>
     <row r="296" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9320,7 +9947,9 @@
       <c r="D296" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="E296" s="18"/>
+      <c r="E296" s="18">
+        <v>0</v>
+      </c>
       <c r="F296" s="18"/>
     </row>
     <row r="297" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9351,7 +9980,9 @@
       <c r="D298" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="E298" s="18"/>
+      <c r="E298" s="18">
+        <v>0</v>
+      </c>
       <c r="F298" s="18"/>
     </row>
     <row r="299" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9367,7 +9998,9 @@
       <c r="D299" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="E299" s="18"/>
+      <c r="E299" s="18">
+        <v>0</v>
+      </c>
       <c r="F299" s="18"/>
     </row>
     <row r="300" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9383,7 +10016,9 @@
       <c r="D300" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="E300" s="18"/>
+      <c r="E300" s="18">
+        <v>0</v>
+      </c>
       <c r="F300" s="18"/>
     </row>
     <row r="301" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9399,7 +10034,9 @@
       <c r="D301" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="E301" s="18"/>
+      <c r="E301" s="18">
+        <v>0</v>
+      </c>
       <c r="F301" s="18"/>
     </row>
     <row r="302" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9415,7 +10052,9 @@
       <c r="D302" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="E302" s="18"/>
+      <c r="E302" s="18">
+        <v>0</v>
+      </c>
       <c r="F302" s="18"/>
     </row>
     <row r="303" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9446,7 +10085,9 @@
       <c r="D304" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="E304" s="18"/>
+      <c r="E304" s="18">
+        <v>0</v>
+      </c>
       <c r="F304" s="18"/>
     </row>
     <row r="305" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9462,7 +10103,9 @@
       <c r="D305" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="E305" s="18"/>
+      <c r="E305" s="18">
+        <v>0</v>
+      </c>
       <c r="F305" s="18"/>
     </row>
     <row r="306" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9478,7 +10121,9 @@
       <c r="D306" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="E306" s="18"/>
+      <c r="E306" s="18">
+        <v>0</v>
+      </c>
       <c r="F306" s="18"/>
     </row>
     <row r="307" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9494,7 +10139,9 @@
       <c r="D307" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="E307" s="18"/>
+      <c r="E307" s="18">
+        <v>0</v>
+      </c>
       <c r="F307" s="18"/>
     </row>
     <row r="308" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9510,7 +10157,9 @@
       <c r="D308" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="E308" s="18"/>
+      <c r="E308" s="18">
+        <v>0</v>
+      </c>
       <c r="F308" s="18"/>
     </row>
     <row r="309" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9553,7 +10202,9 @@
       <c r="D311" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="E311" s="18"/>
+      <c r="E311" s="18">
+        <v>0</v>
+      </c>
       <c r="F311" s="18"/>
     </row>
     <row r="312" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9569,7 +10220,9 @@
       <c r="D312" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="E312" s="18"/>
+      <c r="E312" s="18">
+        <v>0</v>
+      </c>
       <c r="F312" s="18"/>
     </row>
     <row r="313" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9585,7 +10238,9 @@
       <c r="D313" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="E313" s="18"/>
+      <c r="E313" s="18">
+        <v>0</v>
+      </c>
       <c r="F313" s="18"/>
     </row>
     <row r="314" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9601,7 +10256,9 @@
       <c r="D314" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="E314" s="18"/>
+      <c r="E314" s="18">
+        <v>0</v>
+      </c>
       <c r="F314" s="18"/>
     </row>
     <row r="315" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9617,7 +10274,9 @@
       <c r="D315" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="E315" s="18"/>
+      <c r="E315" s="18">
+        <v>0</v>
+      </c>
       <c r="F315" s="18"/>
     </row>
     <row r="316" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9648,7 +10307,9 @@
       <c r="D317" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="E317" s="18"/>
+      <c r="E317" s="18">
+        <v>0</v>
+      </c>
       <c r="F317" s="18"/>
     </row>
     <row r="318" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9664,7 +10325,9 @@
       <c r="D318" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="E318" s="18"/>
+      <c r="E318" s="18">
+        <v>0</v>
+      </c>
       <c r="F318" s="18"/>
     </row>
     <row r="319" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9680,7 +10343,9 @@
       <c r="D319" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="E319" s="18"/>
+      <c r="E319" s="18">
+        <v>0</v>
+      </c>
       <c r="F319" s="18"/>
     </row>
     <row r="320" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9696,7 +10361,9 @@
       <c r="D320" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="E320" s="18"/>
+      <c r="E320" s="18">
+        <v>0</v>
+      </c>
       <c r="F320" s="18"/>
     </row>
     <row r="321" spans="1:6" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -9712,7 +10379,9 @@
       <c r="D321" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E321" s="18"/>
+      <c r="E321" s="18">
+        <v>0</v>
+      </c>
       <c r="F321" s="18"/>
     </row>
     <row r="322" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9743,7 +10412,9 @@
       <c r="D323" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="E323" s="18"/>
+      <c r="E323" s="18">
+        <v>0</v>
+      </c>
       <c r="F323" s="18"/>
     </row>
     <row r="324" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9759,7 +10430,9 @@
       <c r="D324" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="E324" s="18"/>
+      <c r="E324" s="18">
+        <v>0</v>
+      </c>
       <c r="F324" s="18"/>
     </row>
     <row r="325" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9775,7 +10448,9 @@
       <c r="D325" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="E325" s="18"/>
+      <c r="E325" s="18">
+        <v>0</v>
+      </c>
       <c r="F325" s="18"/>
     </row>
     <row r="326" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9791,7 +10466,9 @@
       <c r="D326" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="E326" s="18"/>
+      <c r="E326" s="18">
+        <v>0</v>
+      </c>
       <c r="F326" s="18"/>
     </row>
     <row r="327" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9807,7 +10484,9 @@
       <c r="D327" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="E327" s="18"/>
+      <c r="E327" s="18">
+        <v>0</v>
+      </c>
       <c r="F327" s="18"/>
     </row>
     <row r="328" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9838,7 +10517,9 @@
       <c r="D329" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="E329" s="18"/>
+      <c r="E329" s="18">
+        <v>0</v>
+      </c>
       <c r="F329" s="18"/>
     </row>
     <row r="330" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9854,7 +10535,9 @@
       <c r="D330" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="E330" s="18"/>
+      <c r="E330" s="18">
+        <v>0</v>
+      </c>
       <c r="F330" s="18"/>
     </row>
     <row r="331" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9870,7 +10553,9 @@
       <c r="D331" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="E331" s="18"/>
+      <c r="E331" s="18">
+        <v>0</v>
+      </c>
       <c r="F331" s="18"/>
     </row>
     <row r="332" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9886,7 +10571,9 @@
       <c r="D332" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="E332" s="18"/>
+      <c r="E332" s="18">
+        <v>0</v>
+      </c>
       <c r="F332" s="18"/>
     </row>
     <row r="333" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9902,7 +10589,9 @@
       <c r="D333" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="E333" s="18"/>
+      <c r="E333" s="18">
+        <v>0</v>
+      </c>
       <c r="F333" s="18"/>
     </row>
     <row r="334" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9933,7 +10622,9 @@
       <c r="D335" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="E335" s="18"/>
+      <c r="E335" s="18">
+        <v>0</v>
+      </c>
       <c r="F335" s="18"/>
     </row>
     <row r="336" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9949,7 +10640,9 @@
       <c r="D336" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="E336" s="18"/>
+      <c r="E336" s="18">
+        <v>0</v>
+      </c>
       <c r="F336" s="18"/>
     </row>
     <row r="337" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9965,7 +10658,9 @@
       <c r="D337" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="E337" s="18"/>
+      <c r="E337" s="18">
+        <v>0</v>
+      </c>
       <c r="F337" s="18"/>
     </row>
     <row r="338" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9981,7 +10676,9 @@
       <c r="D338" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="E338" s="18"/>
+      <c r="E338" s="18">
+        <v>0</v>
+      </c>
       <c r="F338" s="18"/>
     </row>
     <row r="339" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9997,7 +10694,9 @@
       <c r="D339" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="E339" s="18"/>
+      <c r="E339" s="18">
+        <v>0</v>
+      </c>
       <c r="F339" s="18"/>
     </row>
     <row r="340" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10028,7 +10727,9 @@
       <c r="D341" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="E341" s="18"/>
+      <c r="E341" s="18">
+        <v>0</v>
+      </c>
       <c r="F341" s="18"/>
     </row>
     <row r="342" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10044,7 +10745,9 @@
       <c r="D342" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="E342" s="18"/>
+      <c r="E342" s="18">
+        <v>0</v>
+      </c>
       <c r="F342" s="18"/>
     </row>
     <row r="343" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10060,7 +10763,9 @@
       <c r="D343" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="E343" s="18"/>
+      <c r="E343" s="18">
+        <v>0</v>
+      </c>
       <c r="F343" s="18"/>
     </row>
     <row r="344" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10076,7 +10781,9 @@
       <c r="D344" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="E344" s="18"/>
+      <c r="E344" s="18">
+        <v>0</v>
+      </c>
       <c r="F344" s="18"/>
     </row>
     <row r="345" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10092,7 +10799,9 @@
       <c r="D345" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="E345" s="18"/>
+      <c r="E345" s="18">
+        <v>0</v>
+      </c>
       <c r="F345" s="18"/>
     </row>
     <row r="346" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10105,7 +10814,7 @@
       <c r="C346" s="10"/>
       <c r="D346" s="14"/>
       <c r="E346" s="10">
-        <f>SUM(E347:E356)</f>
+        <f>SUM(E347:E351)</f>
         <v>0</v>
       </c>
       <c r="F346" s="10"/>
@@ -10123,7 +10832,9 @@
       <c r="D347" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="E347" s="18"/>
+      <c r="E347" s="18">
+        <v>0</v>
+      </c>
       <c r="F347" s="18"/>
     </row>
     <row r="348" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10139,7 +10850,9 @@
       <c r="D348" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="E348" s="18"/>
+      <c r="E348" s="18">
+        <v>0</v>
+      </c>
       <c r="F348" s="18"/>
     </row>
     <row r="349" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10155,7 +10868,9 @@
       <c r="D349" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="E349" s="18"/>
+      <c r="E349" s="18">
+        <v>0</v>
+      </c>
       <c r="F349" s="18"/>
     </row>
     <row r="350" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10171,7 +10886,9 @@
       <c r="D350" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="E350" s="18"/>
+      <c r="E350" s="18">
+        <v>0</v>
+      </c>
       <c r="F350" s="18"/>
     </row>
     <row r="351" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10187,7 +10904,9 @@
       <c r="D351" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="E351" s="18"/>
+      <c r="E351" s="18">
+        <v>0</v>
+      </c>
       <c r="F351" s="18"/>
     </row>
     <row r="352" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10200,7 +10919,7 @@
       <c r="C352" s="10"/>
       <c r="D352" s="14"/>
       <c r="E352" s="10">
-        <f>SUM(E353:E362)</f>
+        <f>SUM(E353:E357)</f>
         <v>0</v>
       </c>
       <c r="F352" s="10"/>
@@ -10218,7 +10937,9 @@
       <c r="D353" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="E353" s="18"/>
+      <c r="E353" s="18">
+        <v>0</v>
+      </c>
       <c r="F353" s="18"/>
     </row>
     <row r="354" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10234,7 +10955,9 @@
       <c r="D354" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="E354" s="18"/>
+      <c r="E354" s="18">
+        <v>0</v>
+      </c>
       <c r="F354" s="18"/>
     </row>
     <row r="355" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10250,7 +10973,9 @@
       <c r="D355" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="E355" s="18"/>
+      <c r="E355" s="18">
+        <v>0</v>
+      </c>
       <c r="F355" s="18"/>
     </row>
     <row r="356" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10266,7 +10991,9 @@
       <c r="D356" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="E356" s="18"/>
+      <c r="E356" s="18">
+        <v>0</v>
+      </c>
       <c r="F356" s="18"/>
     </row>
     <row r="357" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10282,7 +11009,9 @@
       <c r="D357" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="E357" s="18"/>
+      <c r="E357" s="18">
+        <v>0</v>
+      </c>
       <c r="F357" s="18"/>
     </row>
     <row r="358" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10295,7 +11024,7 @@
       <c r="C358" s="10"/>
       <c r="D358" s="14"/>
       <c r="E358" s="10">
-        <f>SUM(E359:E368)</f>
+        <f>SUM(E359:E363)</f>
         <v>0</v>
       </c>
       <c r="F358" s="10"/>
@@ -10313,7 +11042,9 @@
       <c r="D359" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="E359" s="18"/>
+      <c r="E359" s="18">
+        <v>0</v>
+      </c>
       <c r="F359" s="18"/>
     </row>
     <row r="360" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10329,7 +11060,9 @@
       <c r="D360" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="E360" s="18"/>
+      <c r="E360" s="18">
+        <v>0</v>
+      </c>
       <c r="F360" s="18"/>
     </row>
     <row r="361" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10345,7 +11078,9 @@
       <c r="D361" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="E361" s="18"/>
+      <c r="E361" s="18">
+        <v>0</v>
+      </c>
       <c r="F361" s="18"/>
     </row>
     <row r="362" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10361,7 +11096,9 @@
       <c r="D362" s="5" t="s">
         <v>1022</v>
       </c>
-      <c r="E362" s="18"/>
+      <c r="E362" s="18">
+        <v>0</v>
+      </c>
       <c r="F362" s="18"/>
     </row>
     <row r="363" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10377,7 +11114,9 @@
       <c r="D363" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E363" s="18"/>
+      <c r="E363" s="18">
+        <v>0</v>
+      </c>
       <c r="F363" s="18"/>
     </row>
     <row r="364" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10390,7 +11129,7 @@
       <c r="C364" s="10"/>
       <c r="D364" s="14"/>
       <c r="E364" s="10">
-        <f>SUM(E365:E374)</f>
+        <f>SUM(E365:E369)</f>
         <v>0</v>
       </c>
       <c r="F364" s="10"/>
@@ -10408,7 +11147,9 @@
       <c r="D365" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="E365" s="18"/>
+      <c r="E365" s="18">
+        <v>0</v>
+      </c>
       <c r="F365" s="18"/>
     </row>
     <row r="366" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10424,7 +11165,9 @@
       <c r="D366" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="E366" s="18"/>
+      <c r="E366" s="18">
+        <v>0</v>
+      </c>
       <c r="F366" s="18"/>
     </row>
     <row r="367" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10440,7 +11183,9 @@
       <c r="D367" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="E367" s="18"/>
+      <c r="E367" s="18">
+        <v>0</v>
+      </c>
       <c r="F367" s="18"/>
     </row>
     <row r="368" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10456,7 +11201,9 @@
       <c r="D368" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="E368" s="18"/>
+      <c r="E368" s="18">
+        <v>0</v>
+      </c>
       <c r="F368" s="18"/>
     </row>
     <row r="369" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10472,7 +11219,9 @@
       <c r="D369" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="E369" s="18"/>
+      <c r="E369" s="18">
+        <v>0</v>
+      </c>
       <c r="F369" s="18"/>
     </row>
     <row r="370" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10515,7 +11264,9 @@
       <c r="D372" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="E372" s="18"/>
+      <c r="E372" s="18">
+        <v>0</v>
+      </c>
       <c r="F372" s="18"/>
     </row>
     <row r="373" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10531,7 +11282,9 @@
       <c r="D373" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="E373" s="18"/>
+      <c r="E373" s="18">
+        <v>0</v>
+      </c>
       <c r="F373" s="18"/>
     </row>
     <row r="374" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10547,7 +11300,9 @@
       <c r="D374" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="E374" s="18"/>
+      <c r="E374" s="18">
+        <v>0</v>
+      </c>
       <c r="F374" s="18"/>
     </row>
     <row r="375" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10563,7 +11318,9 @@
       <c r="D375" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="E375" s="18"/>
+      <c r="E375" s="18">
+        <v>0</v>
+      </c>
       <c r="F375" s="18"/>
     </row>
     <row r="376" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10579,7 +11336,9 @@
       <c r="D376" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="E376" s="18"/>
+      <c r="E376" s="18">
+        <v>0</v>
+      </c>
       <c r="F376" s="18"/>
     </row>
     <row r="377" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10595,7 +11354,9 @@
       <c r="D377" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="E377" s="18"/>
+      <c r="E377" s="18">
+        <v>0</v>
+      </c>
       <c r="F377" s="18"/>
     </row>
     <row r="378" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10611,7 +11372,9 @@
       <c r="D378" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="E378" s="18"/>
+      <c r="E378" s="18">
+        <v>0</v>
+      </c>
       <c r="F378" s="18"/>
     </row>
     <row r="379" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10627,7 +11390,9 @@
       <c r="D379" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="E379" s="18"/>
+      <c r="E379" s="18">
+        <v>0</v>
+      </c>
       <c r="F379" s="18"/>
     </row>
     <row r="380" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10643,7 +11408,9 @@
       <c r="D380" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="E380" s="18"/>
+      <c r="E380" s="18">
+        <v>0</v>
+      </c>
       <c r="F380" s="18"/>
     </row>
     <row r="381" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10659,7 +11426,9 @@
       <c r="D381" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="E381" s="18"/>
+      <c r="E381" s="18">
+        <v>0</v>
+      </c>
       <c r="F381" s="18"/>
     </row>
     <row r="382" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10690,7 +11459,9 @@
       <c r="D383" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="E383" s="18"/>
+      <c r="E383" s="18">
+        <v>0</v>
+      </c>
       <c r="F383" s="18"/>
     </row>
     <row r="384" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10706,7 +11477,9 @@
       <c r="D384" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="E384" s="18"/>
+      <c r="E384" s="18">
+        <v>0</v>
+      </c>
       <c r="F384" s="18"/>
     </row>
     <row r="385" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10722,7 +11495,9 @@
       <c r="D385" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="E385" s="18"/>
+      <c r="E385" s="18">
+        <v>0</v>
+      </c>
       <c r="F385" s="18"/>
     </row>
     <row r="386" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10738,7 +11513,9 @@
       <c r="D386" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="E386" s="18"/>
+      <c r="E386" s="18">
+        <v>0</v>
+      </c>
       <c r="F386" s="18"/>
     </row>
     <row r="387" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10754,7 +11531,9 @@
       <c r="D387" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="E387" s="18"/>
+      <c r="E387" s="18">
+        <v>0</v>
+      </c>
       <c r="F387" s="18"/>
     </row>
     <row r="388" spans="1:6" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10770,7 +11549,9 @@
       <c r="D388" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="E388" s="18"/>
+      <c r="E388" s="18">
+        <v>0</v>
+      </c>
       <c r="F388" s="18"/>
     </row>
     <row r="389" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10786,7 +11567,9 @@
       <c r="D389" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="E389" s="18"/>
+      <c r="E389" s="18">
+        <v>0</v>
+      </c>
       <c r="F389" s="18"/>
     </row>
     <row r="390" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10802,7 +11585,9 @@
       <c r="D390" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="E390" s="18"/>
+      <c r="E390" s="18">
+        <v>0</v>
+      </c>
       <c r="F390" s="18"/>
     </row>
     <row r="391" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -10818,7 +11603,9 @@
       <c r="D391" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="E391" s="18"/>
+      <c r="E391" s="18">
+        <v>0</v>
+      </c>
       <c r="F391" s="18"/>
     </row>
     <row r="392" spans="1:6" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -10834,7 +11621,9 @@
       <c r="D392" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="E392" s="18"/>
+      <c r="E392" s="18">
+        <v>0</v>
+      </c>
       <c r="F392" s="18"/>
     </row>
     <row r="393" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10865,7 +11654,9 @@
       <c r="D394" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="E394" s="18"/>
+      <c r="E394" s="18">
+        <v>0</v>
+      </c>
       <c r="F394" s="18"/>
     </row>
     <row r="395" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10881,7 +11672,9 @@
       <c r="D395" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="E395" s="18"/>
+      <c r="E395" s="18">
+        <v>0</v>
+      </c>
       <c r="F395" s="18"/>
     </row>
     <row r="396" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10897,7 +11690,9 @@
       <c r="D396" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="E396" s="18"/>
+      <c r="E396" s="18">
+        <v>0</v>
+      </c>
       <c r="F396" s="18"/>
     </row>
     <row r="397" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10913,7 +11708,9 @@
       <c r="D397" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="E397" s="18"/>
+      <c r="E397" s="18">
+        <v>0</v>
+      </c>
       <c r="F397" s="18"/>
     </row>
     <row r="398" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10929,7 +11726,9 @@
       <c r="D398" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="E398" s="18"/>
+      <c r="E398" s="18">
+        <v>0</v>
+      </c>
       <c r="F398" s="18"/>
     </row>
     <row r="399" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10945,7 +11744,9 @@
       <c r="D399" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="E399" s="18"/>
+      <c r="E399" s="18">
+        <v>0</v>
+      </c>
       <c r="F399" s="18"/>
     </row>
     <row r="400" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10961,7 +11762,9 @@
       <c r="D400" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="E400" s="18"/>
+      <c r="E400" s="18">
+        <v>0</v>
+      </c>
       <c r="F400" s="18"/>
     </row>
     <row r="401" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10977,7 +11780,9 @@
       <c r="D401" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="E401" s="18"/>
+      <c r="E401" s="18">
+        <v>0</v>
+      </c>
       <c r="F401" s="18"/>
     </row>
     <row r="402" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10993,7 +11798,9 @@
       <c r="D402" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="E402" s="18"/>
+      <c r="E402" s="18">
+        <v>0</v>
+      </c>
       <c r="F402" s="18"/>
     </row>
     <row r="403" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11009,7 +11816,9 @@
       <c r="D403" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="E403" s="18"/>
+      <c r="E403" s="18">
+        <v>0</v>
+      </c>
       <c r="F403" s="18"/>
     </row>
     <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11040,7 +11849,9 @@
       <c r="D405" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="E405" s="18"/>
+      <c r="E405" s="18">
+        <v>0</v>
+      </c>
       <c r="F405" s="18"/>
     </row>
     <row r="406" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11056,7 +11867,9 @@
       <c r="D406" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="E406" s="18"/>
+      <c r="E406" s="18">
+        <v>0</v>
+      </c>
       <c r="F406" s="18"/>
     </row>
     <row r="407" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11072,7 +11885,9 @@
       <c r="D407" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="E407" s="18"/>
+      <c r="E407" s="18">
+        <v>0</v>
+      </c>
       <c r="F407" s="18"/>
     </row>
     <row r="408" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11088,7 +11903,9 @@
       <c r="D408" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="E408" s="18"/>
+      <c r="E408" s="18">
+        <v>0</v>
+      </c>
       <c r="F408" s="18"/>
     </row>
     <row r="409" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11104,7 +11921,9 @@
       <c r="D409" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="E409" s="18"/>
+      <c r="E409" s="18">
+        <v>0</v>
+      </c>
       <c r="F409" s="18"/>
     </row>
     <row r="410" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -11120,7 +11939,9 @@
       <c r="D410" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="E410" s="18"/>
+      <c r="E410" s="18">
+        <v>0</v>
+      </c>
       <c r="F410" s="18"/>
     </row>
     <row r="411" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11136,7 +11957,9 @@
       <c r="D411" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="E411" s="18"/>
+      <c r="E411" s="18">
+        <v>0</v>
+      </c>
       <c r="F411" s="18"/>
     </row>
     <row r="412" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11152,7 +11975,9 @@
       <c r="D412" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="E412" s="18"/>
+      <c r="E412" s="18">
+        <v>0</v>
+      </c>
       <c r="F412" s="18"/>
     </row>
     <row r="413" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11168,7 +11993,9 @@
       <c r="D413" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="E413" s="18"/>
+      <c r="E413" s="18">
+        <v>0</v>
+      </c>
       <c r="F413" s="18"/>
     </row>
     <row r="414" spans="1:6" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -11184,7 +12011,9 @@
       <c r="D414" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="E414" s="18"/>
+      <c r="E414" s="18">
+        <v>0</v>
+      </c>
       <c r="F414" s="18"/>
     </row>
     <row r="415" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11215,7 +12044,9 @@
       <c r="D416" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="E416" s="18"/>
+      <c r="E416" s="18">
+        <v>0</v>
+      </c>
       <c r="F416" s="18"/>
     </row>
     <row r="417" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11231,7 +12062,9 @@
       <c r="D417" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="E417" s="18"/>
+      <c r="E417" s="18">
+        <v>0</v>
+      </c>
       <c r="F417" s="18"/>
     </row>
     <row r="418" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11247,7 +12080,9 @@
       <c r="D418" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="E418" s="18"/>
+      <c r="E418" s="18">
+        <v>0</v>
+      </c>
       <c r="F418" s="18"/>
     </row>
     <row r="419" spans="1:6" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -11263,7 +12098,9 @@
       <c r="D419" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="E419" s="18"/>
+      <c r="E419" s="18">
+        <v>0</v>
+      </c>
       <c r="F419" s="18"/>
     </row>
     <row r="420" spans="1:6" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -11279,7 +12116,9 @@
       <c r="D420" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="E420" s="18"/>
+      <c r="E420" s="18">
+        <v>0</v>
+      </c>
       <c r="F420" s="18"/>
     </row>
     <row r="421" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11295,7 +12134,9 @@
       <c r="D421" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="E421" s="18"/>
+      <c r="E421" s="18">
+        <v>0</v>
+      </c>
       <c r="F421" s="18"/>
     </row>
     <row r="422" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11311,7 +12152,9 @@
       <c r="D422" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="E422" s="18"/>
+      <c r="E422" s="18">
+        <v>0</v>
+      </c>
       <c r="F422" s="18"/>
     </row>
     <row r="423" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11327,7 +12170,9 @@
       <c r="D423" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="E423" s="18"/>
+      <c r="E423" s="18">
+        <v>0</v>
+      </c>
       <c r="F423" s="18"/>
     </row>
     <row r="424" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11343,7 +12188,9 @@
       <c r="D424" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="E424" s="18"/>
+      <c r="E424" s="18">
+        <v>0</v>
+      </c>
       <c r="F424" s="18"/>
     </row>
     <row r="425" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11359,7 +12206,9 @@
       <c r="D425" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="E425" s="18"/>
+      <c r="E425" s="18">
+        <v>0</v>
+      </c>
       <c r="F425" s="18"/>
     </row>
   </sheetData>
